--- a/ResultadoFinal_IPCA.xlsx
+++ b/ResultadoFinal_IPCA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felip\OneDrive\feliped16\OneDrive\PosGraduação BigData\Bloco A - Analítico e estudo de caso\Trabalho Petroleo-Gasolina\Inflação IPCA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Estudos\Trabalho_Bloco_A\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{43A13C4A-3832-460F-AD62-3334D8329815}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23B1313B-4D4A-4F44-95E2-7DDCA9F3EDCC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A2F6AF7A-5413-4C6B-8931-D558F52DDC5B}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{A2F6AF7A-5413-4C6B-8931-D558F52DDC5B}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1198" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1249" uniqueCount="43">
   <si>
     <t>Região</t>
   </si>
@@ -160,7 +160,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -172,6 +172,12 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF242729"/>
+      <name val="Segoe UI"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -195,11 +201,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -218,7 +225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -514,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0909B453-AEA9-4771-B1A8-065371C028FC}">
-  <dimension ref="A1:H426"/>
+  <dimension ref="A1:H477"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A461" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E474" sqref="E474"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11608,7 +11615,621 @@
         <v>42</v>
       </c>
     </row>
+    <row r="427" spans="1:8" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A427" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C427" s="1"/>
+      <c r="D427" s="1">
+        <v>-0.3</v>
+      </c>
+      <c r="E427" s="4"/>
+      <c r="G427" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C428" s="1"/>
+      <c r="D428" s="1">
+        <v>0.21</v>
+      </c>
+      <c r="G428" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C429" s="1"/>
+      <c r="D429" s="1">
+        <v>-0.04</v>
+      </c>
+      <c r="G429" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C430" s="1"/>
+      <c r="D430" s="1">
+        <v>0.24</v>
+      </c>
+      <c r="G430" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C431" s="1"/>
+      <c r="D431" s="1">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G431" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C432" s="1"/>
+      <c r="D432" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="G432" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C433" s="1"/>
+      <c r="D433" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="G433" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C434" s="1"/>
+      <c r="D434" s="1">
+        <v>-0.23</v>
+      </c>
+      <c r="G434" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C435" s="1"/>
+      <c r="D435" s="1">
+        <v>0.66</v>
+      </c>
+      <c r="G435" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C436" s="1"/>
+      <c r="D436" s="1">
+        <v>-0.03</v>
+      </c>
+      <c r="G436" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C437" s="1"/>
+      <c r="D437" s="1">
+        <v>0.33</v>
+      </c>
+      <c r="G437" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C438" s="1"/>
+      <c r="D438" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="G438" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C439" s="1"/>
+      <c r="D439" s="1">
+        <v>0.54</v>
+      </c>
+      <c r="G439" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C440" s="1"/>
+      <c r="D440" s="1">
+        <v>-0.13</v>
+      </c>
+      <c r="G440" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C441" s="1"/>
+      <c r="D441" s="1">
+        <v>0.13</v>
+      </c>
+      <c r="G441" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C442" s="1"/>
+      <c r="D442" s="1">
+        <v>0.38</v>
+      </c>
+      <c r="G442" s="2">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C443" s="1"/>
+      <c r="D443" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="G443" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C444" s="1"/>
+      <c r="D444">
+        <v>0.73</v>
+      </c>
+      <c r="G444" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C445" s="1"/>
+      <c r="D445">
+        <v>0.76</v>
+      </c>
+      <c r="G445" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C446" s="1"/>
+      <c r="D446">
+        <v>0.95</v>
+      </c>
+      <c r="G446" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C447" s="1"/>
+      <c r="D447">
+        <v>0.64</v>
+      </c>
+      <c r="G447" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C448" s="1"/>
+      <c r="D448">
+        <v>0.37</v>
+      </c>
+      <c r="G448" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C449" s="1"/>
+      <c r="D449">
+        <v>1.26</v>
+      </c>
+      <c r="G449" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C450" s="1"/>
+      <c r="D450">
+        <v>0.71</v>
+      </c>
+      <c r="G450" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C451" s="1"/>
+      <c r="D451">
+        <v>1.22</v>
+      </c>
+      <c r="G451" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C452" s="1"/>
+      <c r="D452">
+        <v>1.03</v>
+      </c>
+      <c r="G452" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C453" s="1"/>
+      <c r="D453">
+        <v>0.83</v>
+      </c>
+      <c r="G453" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C454" s="1"/>
+      <c r="D454">
+        <v>0.68</v>
+      </c>
+      <c r="G454" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C455" s="1"/>
+      <c r="D455">
+        <v>0.78</v>
+      </c>
+      <c r="G455" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C456" s="1"/>
+      <c r="D456">
+        <v>1.19</v>
+      </c>
+      <c r="G456" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C457" s="1"/>
+      <c r="D457">
+        <v>0.62</v>
+      </c>
+      <c r="G457" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C458" s="1"/>
+      <c r="D458">
+        <v>0.23</v>
+      </c>
+      <c r="G458" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C459" s="1"/>
+      <c r="D459">
+        <v>1</v>
+      </c>
+      <c r="G459" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C460" s="1"/>
+      <c r="D460">
+        <v>0.44</v>
+      </c>
+      <c r="G460" s="2">
+        <v>44075</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B461" s="1"/>
+      <c r="D461">
+        <v>0.87</v>
+      </c>
+      <c r="G461" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B462" s="1"/>
+      <c r="D462">
+        <v>1.08</v>
+      </c>
+      <c r="G462" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B463" s="1"/>
+      <c r="D463">
+        <v>1.18</v>
+      </c>
+      <c r="G463" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B464" s="1"/>
+      <c r="D464">
+        <v>0.86</v>
+      </c>
+      <c r="G464" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B465" s="1"/>
+      <c r="D465">
+        <v>1.02</v>
+      </c>
+      <c r="G465" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B466" s="1"/>
+      <c r="D466">
+        <v>0.91</v>
+      </c>
+      <c r="G466" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B467" s="1"/>
+      <c r="D467">
+        <v>1.02</v>
+      </c>
+      <c r="G467" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B468" s="1"/>
+      <c r="D468">
+        <v>0.83</v>
+      </c>
+      <c r="G468" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B469" s="1"/>
+      <c r="D469">
+        <v>0.85</v>
+      </c>
+      <c r="G469" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B470" s="1"/>
+      <c r="D470">
+        <v>0.91</v>
+      </c>
+      <c r="G470" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B471" s="1"/>
+      <c r="D471">
+        <v>0.63</v>
+      </c>
+      <c r="G471" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B472" s="1"/>
+      <c r="D472">
+        <v>0.82</v>
+      </c>
+      <c r="G472" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B473" s="1"/>
+      <c r="D473">
+        <v>1.37</v>
+      </c>
+      <c r="G473" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B474" s="1"/>
+      <c r="D474">
+        <v>0.59</v>
+      </c>
+      <c r="G474" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B475" s="1"/>
+      <c r="D475">
+        <v>0.45</v>
+      </c>
+      <c r="G475" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B476" s="1"/>
+      <c r="D476">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G476" s="2">
+        <v>44105</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B477" s="1"/>
+      <c r="D477">
+        <v>0.89</v>
+      </c>
+      <c r="G477" s="2">
+        <v>44105</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>